--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248B0491-A3FD-4C67-B6CB-B59B6A893F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16FE6AA-A3F5-4CB2-8CCF-F849281328BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86E67649-4749-4043-A158-5B94C27E59B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B2A54BF-0F12-45CB-8F26-B5F6106ECDA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,286 +74,286 @@
     <t>10,61%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886A18A-4DF2-4559-8393-727A30552364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39DF9F9-AC32-4300-A419-0256DAFDDCFD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_estruc-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16FE6AA-A3F5-4CB2-8CCF-F849281328BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24127F93-9375-45EB-85C9-54339AD776E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B2A54BF-0F12-45CB-8F26-B5F6106ECDA1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{29E6EA3E-47A4-4ECA-89DD-F3E7AE304572}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Hogares según si tienen problemas estructurales en la vivienda (goteras, humedades, podredumbre) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39DF9F9-AC32-4300-A419-0256DAFDDCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8403FBC-4B71-4F59-9FE2-8E91D9E8AB7E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6209</v>
+        <v>5671</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>5623</v>
+        <v>6344</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>11832</v>
+        <v>12015</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>52294</v>
+        <v>51840</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
-        <v>51746</v>
+        <v>55100</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>201</v>
       </c>
       <c r="N5" s="7">
-        <v>104039</v>
+        <v>106940</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>21940</v>
+        <v>16445</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>16375</v>
+        <v>22669</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>38316</v>
+        <v>39114</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7">
-        <v>153359</v>
+        <v>142854</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I8" s="7">
-        <v>142390</v>
+        <v>159885</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>477</v>
       </c>
       <c r="N8" s="7">
-        <v>295747</v>
+        <v>302739</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>17551</v>
+        <v>19776</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>19357</v>
+        <v>17792</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>36908</v>
+        <v>37568</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>184026</v>
+        <v>154112</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>157588</v>
+        <v>193755</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>432</v>
       </c>
       <c r="N11" s="7">
-        <v>341614</v>
+        <v>347866</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1354,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>26395</v>
+        <v>22914</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1369,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>24250</v>
+        <v>26524</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>50645</v>
+        <v>49438</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>263029</v>
+        <v>251544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I14" s="7">
-        <v>235364</v>
+        <v>278959</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>498393</v>
+        <v>530503</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1453,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>342</v>
       </c>
-      <c r="D15" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259614</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>549038</v>
+        <v>579941</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>72095</v>
+        <v>64805</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>65605</v>
+        <v>73329</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>193</v>
       </c>
       <c r="N16" s="7">
-        <v>137700</v>
+        <v>138135</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>877</v>
+        <v>848</v>
       </c>
       <c r="D17" s="7">
-        <v>652707</v>
+        <v>600351</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>848</v>
+        <v>877</v>
       </c>
       <c r="I17" s="7">
-        <v>587088</v>
+        <v>687699</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>1725</v>
       </c>
       <c r="N17" s="7">
-        <v>1239795</v>
+        <v>1288049</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665156</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652693</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377495</v>
+        <v>1426184</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
